--- a/Arizona/WaterAllocation/AZ_SW_Allocation Schema Mapping to WaDE_QA.xlsx
+++ b/Arizona/WaterAllocation/AZ_SW_Allocation Schema Mapping to WaDE_QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjame\Documents\WSWC Documents\MappingStatesDataToWaDE2.0\Arizona\WaterAllocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7FC026-2108-4311-8ADB-297EFFF56967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A43AC1-1406-471A-90A9-937DBCC1DC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12576" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
+    <workbookView xWindow="-23148" yWindow="1692" windowWidth="23256" windowHeight="12456" tabRatio="714" activeTab="6" xr2:uid="{10FC1BAB-5472-410C-A2F0-85DCDF5389F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping Notes" sheetId="10" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="298">
   <si>
     <t>Name</t>
   </si>
@@ -801,16 +801,7 @@
     <t>(blank)</t>
   </si>
   <si>
-    <t>Water Rights</t>
-  </si>
-  <si>
-    <t>Arizona Water Rights</t>
-  </si>
-  <si>
     <t>http://gisdata-azwater.opendata.arcgis.com/</t>
-  </si>
-  <si>
-    <t>Adjudicated</t>
   </si>
   <si>
     <t>ADWR_Allocation All</t>
@@ -934,6 +925,19 @@
   </si>
   <si>
     <t>WSWC defined owner tag.</t>
+  </si>
+  <si>
+    <t>The data on this website was developed by the Arizona Department of Water Resources (“Department”), for uses beneficial to the State of Arizona. The information is available to interested members of the public. While the Department believes the information to be reliable and made efforts to assure its reliability at the time the information was compiled, the information is provided “as is.” The Department is not responsible for the accuracy, completeness, quality or legal sufficiency of the information. Any expressed or implied warranties, including, but not limited to, the implied warranties of merchantability and fitness for the purpose ARE SPECIFICALLY DISCLAIMED. Neither the Department nor the State of Arizona shall be held liable for any direct, indirect, incidental, special, exemplary or consequential damages (including, but not limited to: procurement of substitute goods or services; loss of use, data or profits; or business interruption), however caused and on any theory of liability, whether in contract, strict liability or its aggregate use with other information, data or programs. The information contained in each of the basin descriptions at this site was obtained from information on file in the offices of the Department of Water Resources and limited additional information. Recent studies may contain additional, more up-to-date information. The State of Arizona and the Department of Water Resources hereby specifically retain any intellectual property interest, including copyright, that it may hold in the information provided, whether the information is in the form of data, files, text images, photography or maps.
+The Department requests that persons receiving and using this information not make it available to others for their re-use. Instead, interested third parties should be encouraged to request copies directly from the Department, the source that developed the information, in order to provide the greatest degree of reliability.</t>
+  </si>
+  <si>
+    <t>Arizona Water Rights Method</t>
+  </si>
+  <si>
+    <t>https://new.azwater.gov/surface-water</t>
+  </si>
+  <si>
+    <t>Legal Processes</t>
   </si>
 </sst>
 </file>
@@ -1701,7 +1705,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1757,19 +1761,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1860,9 +1858,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1917,7 +1912,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1944,9 +1939,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="33" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2352,12 +2344,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" style="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="69" t="s">
         <v>228</v>
       </c>
       <c r="B1" t="s">
@@ -2365,7 +2357,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="69" t="s">
         <v>229</v>
       </c>
       <c r="B2" t="s">
@@ -2373,18 +2365,18 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="69" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" s="62"/>
+      <c r="B7" s="59"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" s="62"/>
+      <c r="B8" s="59"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="69" t="s">
         <v>231</v>
       </c>
       <c r="B13" t="s">
@@ -2403,11 +2395,11 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B17" s="89"/>
+      <c r="B17" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2419,7 +2411,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,7 +2420,7 @@
     <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" style="5" bestFit="1" customWidth="1"/>
@@ -2489,13 +2481,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2504,7 +2496,7 @@
       <c r="I3" s="17">
         <v>11</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2512,27 +2504,27 @@
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2550,17 +2542,17 @@
         <v>20</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+        <v>269</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2577,18 +2569,18 @@
       <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="68">
         <v>0.5</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2605,18 +2597,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="63" t="s">
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="60" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2633,22 +2625,22 @@
       <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="288" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2662,15 +2654,15 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>294</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2688,21 +2680,21 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>295</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -2715,18 +2707,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2743,18 +2735,18 @@
       <c r="D12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="E12" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>208</v>
       </c>
     </row>
@@ -2762,8 +2754,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:A26">
     <sortCondition ref="A18:A26"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E11" r:id="rId1" xr:uid="{C81513EF-B21C-4A61-A731-A96521806E85}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2842,16 +2837,16 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="17">
         <v>16</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2859,27 +2854,27 @@
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>257</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2899,15 +2894,15 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="17">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2927,15 +2922,15 @@
       <c r="E6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2955,15 +2950,15 @@
       <c r="E7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2983,15 +2978,15 @@
       <c r="E8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3011,15 +3006,15 @@
       <c r="E9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3039,15 +3034,15 @@
       <c r="E10" s="17">
         <v>10</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="17">
         <v>10</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3065,17 +3060,17 @@
         <v>20</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+        <v>255</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3095,15 +3090,15 @@
       <c r="E12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3123,15 +3118,15 @@
       <c r="E13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="60" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3219,13 +3214,13 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="30" t="s">
+      <c r="E3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -3234,7 +3229,7 @@
       <c r="I3" s="18">
         <v>1</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3242,27 +3237,27 @@
       <c r="A4" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45"/>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="H4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3279,18 +3274,18 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="88" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
+      <c r="E5" s="84" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I5" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3308,17 +3303,17 @@
         <v>38</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+        <v>266</v>
+      </c>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>173</v>
       </c>
     </row>
@@ -3336,17 +3331,17 @@
         <v>38</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+        <v>257</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I7" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3364,17 +3359,17 @@
         <v>38</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+        <v>258</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3392,17 +3387,17 @@
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+        <v>259</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3420,17 +3415,17 @@
         <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+        <v>260</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3447,18 +3442,18 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="E11" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="J11" s="60" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3476,17 +3471,17 @@
         <v>38</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+        <v>261</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="9" t="s">
         <v>38</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="J12" s="60" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3602,20 +3597,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="17">
         <v>34658</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3623,25 +3618,25 @@
       <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3658,20 +3653,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="63" t="s">
+      <c r="F5" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="60" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3688,20 +3683,20 @@
       <c r="D6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="63" t="s">
+      <c r="F6" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="60" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3718,20 +3713,20 @@
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="E7" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="19"/>
+      <c r="F7" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="9"/>
       <c r="I7" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3748,20 +3743,20 @@
       <c r="D8" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G8" s="79" t="s">
-        <v>278</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="E8" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3778,20 +3773,20 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="E9" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="17">
         <v>17839</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3808,20 +3803,20 @@
       <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="23"/>
+      <c r="F10" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="21"/>
       <c r="I10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="J10" s="60" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3917,20 +3912,20 @@
       <c r="D3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="19"/>
+      <c r="E3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9"/>
       <c r="I3" s="18">
         <v>39035</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3938,27 +3933,27 @@
       <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>266</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="19"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="81" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3975,20 +3970,20 @@
       <c r="D5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="19"/>
+      <c r="F5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="9"/>
       <c r="I5" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4005,20 +4000,20 @@
       <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="19"/>
+      <c r="E6" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="9"/>
       <c r="I6" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4035,18 +4030,18 @@
       <c r="D7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="G7" s="26" t="s">
-        <v>291</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="64" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="61" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4066,17 +4061,17 @@
       <c r="E8" s="18">
         <v>4326</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23"/>
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="21"/>
       <c r="I8" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4093,18 +4088,18 @@
       <c r="D9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="19"/>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="9"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="60" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4121,20 +4116,20 @@
       <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4151,20 +4146,20 @@
       <c r="D11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="E11" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="19"/>
-      <c r="I11" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="64" t="s">
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4181,20 +4176,20 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="19"/>
-      <c r="I12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="64" t="s">
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="61" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4211,20 +4206,20 @@
       <c r="D13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="H13" s="24"/>
+      <c r="E13" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="H13" s="22"/>
       <c r="I13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J13" s="63" t="s">
+      <c r="J13" s="60" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4241,20 +4236,20 @@
       <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="24"/>
+      <c r="E14" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="22"/>
       <c r="I14" s="18">
         <v>-1067.700435</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="60" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4271,20 +4266,20 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J15" s="63" t="s">
+      <c r="F15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="60" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4301,20 +4296,20 @@
       <c r="D16" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="63" t="s">
+      <c r="F16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="I16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="60" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4331,17 +4326,17 @@
       <c r="D17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>275</v>
+      <c r="E17" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>272</v>
       </c>
       <c r="H17"/>
-      <c r="I17" s="59" t="s">
+      <c r="I17" s="56" t="s">
         <v>235</v>
       </c>
       <c r="J17"/>
@@ -4357,20 +4352,20 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="F18" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="19"/>
+      <c r="E18" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="60" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4387,18 +4382,18 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="H19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="21"/>
       <c r="I19" s="18">
         <v>3703994</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="60" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4415,20 +4410,20 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="19"/>
+      <c r="F20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="9"/>
       <c r="I20" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="61" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4445,20 +4440,20 @@
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="19"/>
+      <c r="E21" s="70" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="76" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="9"/>
       <c r="I21" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="60" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4475,24 +4470,24 @@
       <c r="D22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="25" t="s">
-        <v>264</v>
-      </c>
-      <c r="F22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="19"/>
+      <c r="E22" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="9"/>
       <c r="I22" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>52</v>
       </c>
@@ -4505,20 +4500,20 @@
       <c r="D23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="E23" s="70" t="s">
         <v>252</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="64" t="s">
+      <c r="F23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="61" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4535,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B91B1FF-D207-4871-B787-27544A9D3030}">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4593,217 +4588,217 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="52" t="s">
+      <c r="C3" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="65">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="62">
         <v>50004</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="65">
+      <c r="E4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="62">
         <v>43</v>
       </c>
-      <c r="J4" s="63" t="s">
+      <c r="J4" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+    <row r="5" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="53" t="s">
+      <c r="C5" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="65">
+      <c r="E5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="62">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="J5" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="65">
+      <c r="E6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="62">
         <v>39035</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="J6" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+    <row r="7" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="53" t="s">
+      <c r="C7" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="65">
+      <c r="E7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="62">
         <v>63</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="53" t="s">
+      <c r="C8" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="65">
+      <c r="E8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="62">
         <v>371091</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="J8" s="60" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>273</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="63" t="s">
+      <c r="C9" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="60" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4820,18 +4815,18 @@
       <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="58" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="63" t="s">
+      <c r="E10" s="55" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>185</v>
       </c>
     </row>
@@ -4849,17 +4844,17 @@
         <v>38</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="63" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="60" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4876,18 +4871,18 @@
       <c r="D12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="63" t="s">
+      <c r="E12" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="60" t="s">
         <v>167</v>
       </c>
     </row>
@@ -4895,64 +4890,64 @@
       <c r="A13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="63" t="s">
+      <c r="C13" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="60" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76" t="s">
+    <row r="14" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="65">
+      <c r="F14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="62">
         <v>5363</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="J14" s="60" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
+    <row r="15" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="73" t="s">
         <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -4964,27 +4959,27 @@
       <c r="D15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="38" t="s">
+      <c r="F15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="61" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="76" t="s">
+    <row r="16" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="73" t="s">
         <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -4996,59 +4991,59 @@
       <c r="D16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F16" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="38" t="s">
+      <c r="F16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="61" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="37" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+    <row r="17" spans="1:10" s="35" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A17" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="53" t="s">
+      <c r="D17" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="65" t="s">
+      <c r="F17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="63" t="s">
+      <c r="J17" s="60" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="76" t="s">
+    <row r="18" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="73" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="6" t="s">
@@ -5060,27 +5055,27 @@
       <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="38" t="s">
+      <c r="F18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I18" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="J18" s="64" t="s">
+      <c r="J18" s="61" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="73" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -5092,27 +5087,27 @@
       <c r="D19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F19" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="38" t="s">
+      <c r="F19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I19" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="J19" s="63" t="s">
+      <c r="J19" s="60" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="73" t="s">
         <v>88</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -5124,27 +5119,27 @@
       <c r="D20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F20" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="64" t="s">
+      <c r="F20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="61" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="76" t="s">
+    <row r="21" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="73" t="s">
         <v>239</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -5156,59 +5151,59 @@
       <c r="D21" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F21" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="38" t="s">
+      <c r="F21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I21" s="18">
         <v>5200</v>
       </c>
-      <c r="J21" s="63" t="s">
+      <c r="J21" s="60" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="G22" s="79" t="s">
-        <v>288</v>
-      </c>
-      <c r="H22" s="38" t="s">
+      <c r="D22" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="G22" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I22" s="18">
         <v>1</v>
       </c>
-      <c r="J22" s="63" t="s">
+      <c r="J22" s="60" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="73" t="s">
         <v>86</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -5220,27 +5215,27 @@
       <c r="D23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G23" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" s="38" t="s">
+      <c r="E23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="H23" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I23" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="J23" s="63" t="s">
+      <c r="J23" s="60" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
+    <row r="24" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="73" t="s">
         <v>83</v>
       </c>
       <c r="B24" s="6" t="s">
@@ -5252,30 +5247,30 @@
       <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="H24" s="38" t="s">
+      <c r="E24" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="H24" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I24" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J24" s="63" t="s">
+      <c r="J24" s="60" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="78" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -5284,59 +5279,59 @@
       <c r="D25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="H25" s="38" t="s">
+      <c r="E25" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="H25" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I25" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="J25" s="63" t="s">
+      <c r="J25" s="60" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="73" t="s">
         <v>240</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="25" t="s">
+      <c r="E26" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G26" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>279</v>
-      </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I26" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="63" t="s">
+      <c r="J26" s="60" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
+    <row r="27" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="73" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -5348,27 +5343,27 @@
       <c r="D27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I27" s="68">
+      <c r="E27" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="65">
         <v>44196</v>
       </c>
-      <c r="J27" s="63" t="s">
+      <c r="J27" s="60" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="76" t="s">
+      <c r="A28" s="73" t="s">
         <v>103</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -5380,27 +5375,27 @@
       <c r="D28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="90" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I28" s="68">
+      <c r="E28" s="86" t="s">
+        <v>289</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="65">
         <v>43831</v>
       </c>
-      <c r="J28" s="63" t="s">
+      <c r="J28" s="60" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="73" t="s">
         <v>87</v>
       </c>
       <c r="B29" s="6" t="s">
@@ -5412,27 +5407,27 @@
       <c r="D29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E29" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H29" s="38" t="s">
+      <c r="F29" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I29" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="60" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="79" t="s">
         <v>236</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -5444,59 +5439,59 @@
       <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H30" s="38" t="s">
+      <c r="F30" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="18">
         <v>0</v>
       </c>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="60" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
+      <c r="A31" s="74" t="s">
         <v>147</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="H31" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="63" t="s">
+      <c r="E31" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="60" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="73" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="6" t="s">
@@ -5508,27 +5503,27 @@
       <c r="D32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="25" t="s">
+      <c r="E32" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="38" t="s">
+      <c r="F32" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I32" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J32" s="64" t="s">
+      <c r="J32" s="61" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="73" t="s">
         <v>98</v>
       </c>
       <c r="B33" s="6" t="s">
@@ -5540,27 +5535,27 @@
       <c r="D33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="25" t="s">
+      <c r="E33" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F33" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="38" t="s">
+      <c r="F33" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I33" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="60" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="49" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A34" s="76" t="s">
+    <row r="34" spans="1:16" s="47" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A34" s="73" t="s">
         <v>100</v>
       </c>
       <c r="B34" s="6" t="s">
@@ -5572,59 +5567,59 @@
       <c r="D34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E34" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F34" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="38" t="s">
+      <c r="F34" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I34" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J34" s="63" t="s">
+      <c r="J34" s="60" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="76" t="s">
+      <c r="A35" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="60">
+      <c r="C35" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="57">
         <v>44166</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="69">
+      <c r="F35" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="66">
         <v>43874</v>
       </c>
-      <c r="J35" s="63" t="s">
+      <c r="J35" s="60" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="76" t="s">
+      <c r="A36" s="73" t="s">
         <v>82</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -5636,53 +5631,53 @@
       <c r="D36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I36" s="70">
+      <c r="F36" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="67">
         <v>33187</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="61" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="96" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="78" t="s">
+    <row r="37" spans="1:16" s="92" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C37" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="34" t="s">
+      <c r="D37" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="F37" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="G37" s="92" t="s">
-        <v>38</v>
-      </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
+      <c r="F37" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="91"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="76" t="s">
+      <c r="A38" s="73" t="s">
         <v>90</v>
       </c>
       <c r="B38" s="6" t="s">
@@ -5694,27 +5689,27 @@
       <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J38" s="63" t="s">
+      <c r="F38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J38" s="60" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="76" t="s">
+      <c r="A39" s="73" t="s">
         <v>91</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -5726,25 +5721,25 @@
       <c r="D39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F39" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G39" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J39" s="63" t="s">
+      <c r="F39" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="60" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A40" s="76" t="s">
+      <c r="A40" s="73" t="s">
         <v>99</v>
       </c>
       <c r="B40" s="6" t="s">
@@ -5756,27 +5751,27 @@
       <c r="D40" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="25" t="s">
+      <c r="E40" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F40" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H40" s="38" t="s">
+      <c r="F40" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I40" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="60" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
+      <c r="A41" s="73" t="s">
         <v>96</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -5788,28 +5783,28 @@
       <c r="D41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="25" t="s">
+      <c r="E41" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G41" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J41" s="64" t="s">
+      <c r="F41" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="61" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>34</v>
@@ -5822,15 +5817,15 @@
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="J42" s="63" t="s">
-        <v>296</v>
+      <c r="G42" s="93"/>
+      <c r="H42" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>293</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -5839,8 +5834,8 @@
       <c r="O42" s="5"/>
       <c r="P42" s="5"/>
     </row>
-    <row r="43" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="76" t="s">
+    <row r="43" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="73" t="s">
         <v>89</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -5852,22 +5847,22 @@
       <c r="D43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="25" t="s">
+      <c r="E43" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="67" t="s">
-        <v>38</v>
-      </c>
-      <c r="J43" s="63" t="s">
+      <c r="F43" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="J43" s="60" t="s">
         <v>201</v>
       </c>
       <c r="K43" s="5"/>
@@ -5878,7 +5873,7 @@
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="76" t="s">
+      <c r="A44" s="73" t="s">
         <v>102</v>
       </c>
       <c r="B44" s="6" t="s">
@@ -5890,91 +5885,91 @@
       <c r="D44" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="25" t="s">
+      <c r="E44" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H44" s="38" t="s">
+      <c r="F44" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I44" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J44" s="64" t="s">
+      <c r="J44" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
+      <c r="K44" s="47"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="47"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="47"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="76" t="s">
+      <c r="A45" s="73" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="51" t="s">
+      <c r="C45" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="25" t="s">
+      <c r="E45" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="F45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="65" t="s">
+      <c r="F45" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="J45" s="63" t="s">
+      <c r="J45" s="60" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
+    <row r="46" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="25" t="s">
+      <c r="E46" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="80"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="63"/>
+      <c r="F46" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46" s="77"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="60"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="73" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -5986,27 +5981,27 @@
       <c r="D47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="25" t="s">
+      <c r="E47" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="F47" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" s="38" t="s">
+      <c r="F47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="36" t="s">
         <v>38</v>
       </c>
       <c r="I47" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J47" s="63" t="s">
+      <c r="J47" s="60" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="75"/>
+      <c r="A89" s="72"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -6026,32 +6021,32 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="59"/>
-      <c r="B1" s="59"/>
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="56"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
